--- a/MySurvivorsGame/Assets/StreamingAssets/NPCsData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/NPCsData.xlsx
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="F4" s="3">
         <v>50.0</v>

--- a/MySurvivorsGame/Assets/StreamingAssets/NPCsData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/NPCsData.xlsx
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F4" s="3">
         <v>50.0</v>
@@ -530,10 +530,10 @@
         <v>30</v>
       </c>
       <c r="E5" s="3">
+        <v>400.0</v>
+      </c>
+      <c r="F5" s="3">
         <v>200.0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>100.0</v>
       </c>
       <c r="G5" s="3">
         <v>1.0</v>
